--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
+++ b/main/ig/CodeSystem-usage-context-ror-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
